--- a/Classifier2/Forrest_StatsDrugimportance.xlsx
+++ b/Classifier2/Forrest_StatsDrugimportance.xlsx
@@ -420,16 +420,16 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.3387096774193548</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="D2">
-        <v>0.3387997018178359</v>
+        <v>0.3151686220826117</v>
       </c>
       <c r="E2">
-        <v>0.3393305516790535</v>
+        <v>0.3127924656877049</v>
       </c>
       <c r="F2">
-        <v>0.337440156416918</v>
+        <v>0.3111677220050912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -460,16 +460,16 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.3351254480286738</v>
+        <v>0.3145161290322581</v>
       </c>
       <c r="D4">
-        <v>0.334382366298602</v>
+        <v>0.3171783685021332</v>
       </c>
       <c r="E4">
-        <v>0.3359097318700328</v>
+        <v>0.315555242670497</v>
       </c>
       <c r="F4">
-        <v>0.3332606209789333</v>
+        <v>0.3130143988390191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,16 +480,16 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379929</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="D5">
-        <v>0.3296947531420774</v>
+        <v>0.3148526079977057</v>
       </c>
       <c r="E5">
-        <v>0.3323157635701822</v>
+        <v>0.3128537381402817</v>
       </c>
       <c r="F5">
-        <v>0.3289588318451898</v>
+        <v>0.3105871653484257</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -540,16 +540,16 @@
         <v>700</v>
       </c>
       <c r="C8">
-        <v>0.3342293906810036</v>
+        <v>0.3154121863799283</v>
       </c>
       <c r="D8">
-        <v>0.3315681336274718</v>
+        <v>0.3181740584811839</v>
       </c>
       <c r="E8">
-        <v>0.3348968018415587</v>
+        <v>0.3163537497475776</v>
       </c>
       <c r="F8">
-        <v>0.3314219614858693</v>
+        <v>0.313715687095877</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,16 +560,16 @@
         <v>800</v>
       </c>
       <c r="C9">
-        <v>0.3342293906810036</v>
+        <v>0.3127240143369175</v>
       </c>
       <c r="D9">
-        <v>0.3320379476828122</v>
+        <v>0.3149313911929019</v>
       </c>
       <c r="E9">
-        <v>0.3349064371453117</v>
+        <v>0.3136703176523809</v>
       </c>
       <c r="F9">
-        <v>0.3315934403882476</v>
+        <v>0.3106586975374734</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -650,16 +650,16 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0.6451612903225806</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="D3">
-        <v>0.6079398864809081</v>
+        <v>0.6489996114996115</v>
       </c>
       <c r="E3">
-        <v>0.6523371848739495</v>
+        <v>0.6681109943977591</v>
       </c>
       <c r="F3">
-        <v>0.6180555555555556</v>
+        <v>0.6480547774665422</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,16 +670,16 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>0.6612903225806451</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D4">
-        <v>0.6557303807303807</v>
+        <v>0.6079398864809081</v>
       </c>
       <c r="E4">
-        <v>0.6669205182072828</v>
+        <v>0.6523371848739495</v>
       </c>
       <c r="F4">
-        <v>0.6512060379707437</v>
+        <v>0.6180555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -710,16 +710,16 @@
         <v>500</v>
       </c>
       <c r="C6">
-        <v>0.6451612903225806</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="D6">
-        <v>0.6079398864809081</v>
+        <v>0.6480493191019507</v>
       </c>
       <c r="E6">
-        <v>0.6523371848739495</v>
+        <v>0.6681109943977591</v>
       </c>
       <c r="F6">
-        <v>0.6180555555555556</v>
+        <v>0.6486892736892736</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,16 +730,16 @@
         <v>600</v>
       </c>
       <c r="C7">
-        <v>0.6612903225806451</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D7">
-        <v>0.6351049191606468</v>
+        <v>0.6302613150523367</v>
       </c>
       <c r="E7">
-        <v>0.6679621848739495</v>
+        <v>0.6502538515406162</v>
       </c>
       <c r="F7">
-        <v>0.6416039426523298</v>
+        <v>0.6358034500414923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,13 +753,13 @@
         <v>0.6612903225806451</v>
       </c>
       <c r="D8">
-        <v>0.6348039215686274</v>
+        <v>0.6438159793422952</v>
       </c>
       <c r="E8">
-        <v>0.6679621848739495</v>
+        <v>0.6681109943977591</v>
       </c>
       <c r="F8">
-        <v>0.6407142857142857</v>
+        <v>0.6486869412515964</v>
       </c>
     </row>
     <row r="9" spans="1:6">
